--- a/Teacher_list_who_comes_from_transfered.xlsx
+++ b/Teacher_list_who_comes_from_transfered.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="14355" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="14355" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="letter-1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>क्रमसं.</t>
   </si>
@@ -41,14 +41,35 @@
     <t>प्राण नंबर</t>
   </si>
   <si>
-    <t>अनुभू</t>
+    <t>MRITYUNJAY KUMAR</t>
+  </si>
+  <si>
+    <t>BPSC TRE-01</t>
+  </si>
+  <si>
+    <t>विद्यालय का नाम</t>
+  </si>
+  <si>
+    <t>स्थानांतरित विद्यालय का नाम एवं जिला</t>
+  </si>
+  <si>
+    <t>U.M.S. SALAIYAKALA, FATEHPUR, GAYA</t>
+  </si>
+  <si>
+    <t>XI-XII</t>
+  </si>
+  <si>
+    <t>GOVT. UHS, DHAMAURA, LAURIYA, PASCHIM CHAMPARAN</t>
+  </si>
+  <si>
+    <t>अभ्युक्ति</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +93,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -81,7 +117,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -89,20 +125,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -405,68 +481,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D2" s="4">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E2" s="4">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F2" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="G2" s="4">
+        <v>7</v>
+      </c>
+      <c r="H2" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="D3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="12">
+        <v>110168937075</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="1.0104166666666667" bottom="0.75" header="0.20833333333333334" footer="0.3"/>
@@ -483,10 +680,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,51 +697,171 @@
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="G2" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="D3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="9">
+        <v>110168937075</v>
+      </c>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="1.0104166666666667" bottom="0.75" header="0.20833333333333334" footer="0.3"/>
